--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26729746.82</v>
+        <v>52562833.97</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921715.41</v>
+        <v>1095059.04</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2182305.56</v>
+        <v>2151058.42</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>663631.64</v>
+        <v>663699.02</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2120822.68</v>
+        <v>2120236.37</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1648006.79</v>
+        <v>1576641.63</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156291.23</v>
+        <v>165229.31</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3850761.43</v>
+        <v>3850405.3</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1128067.35</v>
+        <v>1127861.52</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1826942.78</v>
+        <v>1804886.06</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1087065.31</v>
+        <v>1087088.96</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>682984.77</v>
+        <v>657914.34</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1377520.3</v>
+        <v>1362379.58</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>507590.42</v>
+        <v>507466.94</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2313211.79</v>
+        <v>2313741.29</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>367492.91</v>
+        <v>367658.57</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1300475.35</v>
+        <v>1253191.12</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1381065.83</v>
+        <v>1345729.25</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>554431.17</v>
+        <v>554691.89</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1034269.84</v>
+        <v>1034247.73</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190841.95</v>
+        <v>190846.26</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>162077.91</v>
+        <v>173931.52</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442746.66</v>
+        <v>442742.7</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>398308.94</v>
+        <v>341380.17</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>416956.06</v>
+        <v>493729.11</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>171501.29</v>
+        <v>171437.47</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56722</v>
+        <v>56736.97</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303816.31</v>
+        <v>304271.11</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>221917.98</v>
+        <v>221957.8</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22813.69</v>
+        <v>22797.97</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,197 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159106.88</v>
+        <v>159254.57</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>427798.64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>500196.16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20008.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>45412.65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3101485.58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>257231.26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>212740.27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>217001.68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>22240.86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>479790.24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>297986.51</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>88471.61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12995.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5568577.07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>51017.74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>22797.97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3976331.36</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5097906.04</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5639631.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -823,7 +823,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,508 +436,659 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52562833.97</v>
+        <v>493918.17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>555521.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1095059.04</v>
+        <v>2031868.21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1965552.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2151058.42</v>
+        <v>180496.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>180458.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>663699.02</v>
+        <v>442766.26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>409772.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2120236.37</v>
+        <v>641957.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>641526.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1576641.63</v>
+        <v>2121584.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2121018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165229.31</v>
+        <v>22266.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22182.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3850405.3</v>
+        <v>484125.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>483598.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127861.52</v>
+        <v>56735.41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>59321.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1804886.06</v>
+        <v>13063.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13016.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1087088.96</v>
+        <v>1592569.49</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1609557.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657914.34</v>
-      </c>
+        <v>183603.07</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1362379.58</v>
+        <v>428007.94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>434655.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>507466.94</v>
+        <v>5549121.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5520011.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2313741.29</v>
+        <v>3782217.79</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3718020.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>367658.57</v>
+        <v>1127558.83</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1128360.79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1253191.12</v>
+        <v>45403.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45407.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1345729.25</v>
+        <v>3102956.45</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3101616.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>554691.89</v>
+        <v>500024.52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>500230.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1034247.73</v>
+        <v>298080.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>297494.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190846.26</v>
+        <v>20009.05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19993.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173931.52</v>
+        <v>1328235.43</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1409067.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442742.7</v>
+        <v>1338035.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1386031.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>341380.17</v>
+        <v>1797447.14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1860247.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>493729.11</v>
+        <v>1069389.38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1084903.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>171437.47</v>
+        <v>303852.08</v>
+      </c>
+      <c r="C27" t="n">
+        <v>304076</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>56736.97</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>5640649.97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>304271.11</v>
+        <v>222032.43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>222077.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>221957.8</v>
+        <v>51006.32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50979.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22797.97</v>
+        <v>628310.4300000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>597986.5699999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159254.57</v>
+        <v>1385225.84</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1384726.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>427798.64</v>
+        <v>183558.35</v>
+      </c>
+      <c r="C33" t="n">
+        <v>191837.98</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500196.16</v>
+        <v>22817.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31306.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20008.1</v>
+        <v>22817.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31306.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45412.65</v>
+        <v>257134.12</v>
+      </c>
+      <c r="C36" t="n">
+        <v>261735.88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3101485.58</v>
+        <v>212736.92</v>
+      </c>
+      <c r="C37" t="n">
+        <v>212849.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>257231.26</v>
+        <v>159240.21</v>
+      </c>
+      <c r="C38" t="n">
+        <v>159198.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212740.27</v>
+        <v>554374.27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>569589.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217001.68</v>
+        <v>1034393.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1153255.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22240.86</v>
+        <v>341282.04</v>
+      </c>
+      <c r="C41" t="n">
+        <v>341306.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>479790.24</v>
+        <v>507560.09</v>
+      </c>
+      <c r="C42" t="n">
+        <v>507296.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>297986.51</v>
+        <v>367788.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>367543.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>88471.61</v>
+        <v>2313312.58</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2313501.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12995.72</v>
+        <v>3981650.41</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3982233.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5568577.07</v>
+        <v>5095453.28</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5890140.48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51017.74</v>
+        <v>42300.85</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42883.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>22797.97</v>
+        <v>190895.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>190817.94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3976331.36</v>
+        <v>88581.84</v>
+      </c>
+      <c r="C49" t="n">
+        <v>88525.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5097906.04</v>
+        <v>991867.39</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1129859.37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5639631.56</v>
+        <v>46617767.13</v>
+      </c>
+      <c r="C51" t="n">
+        <v>53103390.61</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,647 +443,521 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>493918.17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>555521.72</v>
+        <v>53643957.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2031868.21</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1965552.25</v>
+        <v>1072879.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180496.49</v>
-      </c>
-      <c r="C4" t="n">
-        <v>180458.44</v>
+        <v>555521.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442766.26</v>
-      </c>
-      <c r="C5" t="n">
-        <v>409772.54</v>
+        <v>1965552.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641957.66</v>
-      </c>
-      <c r="C6" t="n">
-        <v>641526.89</v>
+        <v>180458.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2121584.53</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2121018</v>
+        <v>409772.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22266.29</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22182.47</v>
+        <v>641526.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>484125.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>483598.22</v>
+        <v>2121018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56735.41</v>
-      </c>
-      <c r="C10" t="n">
-        <v>59321.84</v>
+        <v>60203.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13063.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13016.39</v>
+        <v>280549.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1592569.49</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1609557.2</v>
+        <v>22182.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183603.07</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>483598.22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>428007.94</v>
-      </c>
-      <c r="C14" t="n">
-        <v>434655.43</v>
+        <v>59321.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5549121.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5520011.45</v>
+        <v>13016.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3782217.79</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3718020.23</v>
+        <v>1609557.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1127558.83</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1128360.79</v>
+        <v>190921.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45403.61</v>
-      </c>
-      <c r="C18" t="n">
-        <v>45407.82</v>
+        <v>434655.43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3102956.45</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3101616.47</v>
+        <v>5520011.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>500024.52</v>
-      </c>
-      <c r="C20" t="n">
-        <v>500230.26</v>
+        <v>40199.72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298080.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>297494.04</v>
+        <v>3718020.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20009.05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>19993.64</v>
+        <v>1128360.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328235.43</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1409067.53</v>
+        <v>500230.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1338035.45</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1386031.58</v>
+        <v>19993.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1797447.14</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1860247.18</v>
+        <v>45407.82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1069389.38</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1084903.44</v>
+        <v>3101616.47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>303852.08</v>
-      </c>
-      <c r="C27" t="n">
-        <v>304076</v>
+        <v>297494.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>5640649.97</v>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1409067.53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>222032.43</v>
-      </c>
-      <c r="C29" t="n">
-        <v>222077.87</v>
+        <v>1386031.58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51006.32</v>
-      </c>
-      <c r="C30" t="n">
-        <v>50979.46</v>
+        <v>1860247.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>628310.4300000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>597986.5699999999</v>
+        <v>1084903.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1385225.84</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1384726.83</v>
+        <v>304076</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>183558.35</v>
-      </c>
-      <c r="C33" t="n">
-        <v>191837.98</v>
+        <v>5640649.97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22817.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>31306.2</v>
+        <v>222077.87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22817.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>31306.2</v>
+        <v>50979.46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>257134.12</v>
-      </c>
-      <c r="C36" t="n">
-        <v>261735.88</v>
+        <v>597986.5699999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>212736.92</v>
-      </c>
-      <c r="C37" t="n">
-        <v>212849.36</v>
+        <v>1384726.83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159240.21</v>
-      </c>
-      <c r="C38" t="n">
-        <v>159198.75</v>
+        <v>191837.98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>554374.27</v>
-      </c>
-      <c r="C39" t="n">
-        <v>569589.4</v>
+        <v>31306.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1034393.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1153255.7</v>
+        <v>261735.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341282.04</v>
-      </c>
-      <c r="C41" t="n">
-        <v>341306.89</v>
+        <v>212849.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>507560.09</v>
-      </c>
-      <c r="C42" t="n">
-        <v>507296.33</v>
+        <v>159198.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>367788.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>367543.33</v>
+        <v>569589.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2313312.58</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2313501.55</v>
+        <v>1153255.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3981650.41</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3982233.18</v>
+        <v>341306.89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5095453.28</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5890140.48</v>
+        <v>507296.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42300.85</v>
-      </c>
-      <c r="C47" t="n">
-        <v>42883.67</v>
+        <v>367543.33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>190895.1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>190817.94</v>
+        <v>2313501.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>88581.84</v>
-      </c>
-      <c r="C49" t="n">
-        <v>88525.25</v>
+        <v>3982233.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>991867.39</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1129859.37</v>
+        <v>5890140.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>46617767.13</v>
-      </c>
-      <c r="C51" t="n">
-        <v>53103390.61</v>
+        <v>42883.67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>190817.94</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>88525.25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,525 +439,664 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53643957.42</v>
+        <v>555521.72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>780789.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1072879.15</v>
+        <v>1965552.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1964743.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555521.72</v>
+        <v>180458.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>191274.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965552.25</v>
+        <v>409772.54</v>
+      </c>
+      <c r="C5" t="n">
+        <v>432395.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180458.44</v>
+        <v>641526.89</v>
+      </c>
+      <c r="C6" t="n">
+        <v>641456.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409772.54</v>
+        <v>2121018</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2121140.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>641526.89</v>
+        <v>60203.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60345.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2121018</v>
+        <v>280549.07</v>
+      </c>
+      <c r="C9" t="n">
+        <v>315455.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60203.17</v>
+        <v>22182.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14634.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280549.07</v>
+        <v>483598.22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>482059.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22182.47</v>
+        <v>59321.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59322.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>483598.22</v>
+        <v>13016.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13039.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59321.84</v>
+        <v>1609557.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1675673.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13016.39</v>
+        <v>190921.05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>190918.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1609557.2</v>
+        <v>434655.43</v>
+      </c>
+      <c r="C16" t="n">
+        <v>434722.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190921.05</v>
+        <v>5520011.45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5478700.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>434655.43</v>
+        <v>40199.72</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40202.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5520011.45</v>
-      </c>
+        <v>3718020.23</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40199.72</v>
-      </c>
+        <v>1128360.79</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3718020.23</v>
-      </c>
+        <v>500230.26</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1128360.79</v>
-      </c>
+        <v>19993.64</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>500230.26</v>
-      </c>
+        <v>45407.82</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19993.64</v>
-      </c>
+        <v>3101616.47</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45407.82</v>
-      </c>
+        <v>297494.04</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3101616.47</v>
-      </c>
+        <v>1409067.53</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>297494.04</v>
-      </c>
+        <v>1386031.58</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1409067.53</v>
-      </c>
+        <v>1860247.18</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1386031.58</v>
+        <v>1084903.44</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1317442.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1860247.18</v>
+        <v>304076</v>
+      </c>
+      <c r="C30" t="n">
+        <v>303875.61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1084903.44</v>
+        <v>5640649.97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5641847.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304076</v>
+        <v>222077.87</v>
+      </c>
+      <c r="C32" t="n">
+        <v>237028.35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5640649.97</v>
+        <v>50979.46</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50988.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222077.87</v>
+        <v>597986.5699999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>587771.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50979.46</v>
+        <v>1384726.83</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1395133.34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>597986.5699999999</v>
+        <v>191837.98</v>
+      </c>
+      <c r="C36" t="n">
+        <v>200806.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1384726.83</v>
+        <v>31306.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31316.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191837.98</v>
+        <v>261735.88</v>
+      </c>
+      <c r="C38" t="n">
+        <v>277947.33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31306.2</v>
+        <v>212849.36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>212751.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>261735.88</v>
+        <v>159198.75</v>
+      </c>
+      <c r="C40" t="n">
+        <v>159108.49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212849.36</v>
-      </c>
+        <v>569589.4</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159198.75</v>
+        <v>1153255.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1153463.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>569589.4</v>
+        <v>341306.89</v>
+      </c>
+      <c r="C43" t="n">
+        <v>341388.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153255.7</v>
+        <v>507296.33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>507295.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>341306.89</v>
+        <v>367543.33</v>
+      </c>
+      <c r="C45" t="n">
+        <v>367494.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507296.33</v>
+        <v>2313501.55</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2313158.64</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>367543.33</v>
+        <v>3982233.18</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3981960.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2313501.55</v>
+        <v>5890140.48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7475061.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3982233.18</v>
+        <v>42883.67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>41495.97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5890140.48</v>
+        <v>190817.94</v>
+      </c>
+      <c r="C50" t="n">
+        <v>190746.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>42883.67</v>
+        <v>88525.25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>88448.78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>190817.94</v>
+        <v>1072879.15</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1071113.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>88525.25</v>
+        <v>53643957.42</v>
+      </c>
+      <c r="C53" t="n">
+        <v>41773407.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>780789.63</v>
       </c>
+      <c r="D2" t="n">
+        <v>951424.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>1964743.29</v>
       </c>
+      <c r="D3" t="n">
+        <v>2054790.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>191274.98</v>
       </c>
+      <c r="D4" t="n">
+        <v>211212.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>432395.27</v>
       </c>
+      <c r="D5" t="n">
+        <v>440779.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>641456.41</v>
       </c>
+      <c r="D6" t="n">
+        <v>657942.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>2121140.19</v>
       </c>
+      <c r="D7" t="n">
+        <v>2121845.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>60345.62</v>
       </c>
+      <c r="D8" t="n">
+        <v>59638.56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>315455.6</v>
       </c>
+      <c r="D9" t="n">
+        <v>328793.63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>14634.87</v>
       </c>
+      <c r="D10" t="n">
+        <v>14640.92</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>482059.93</v>
       </c>
+      <c r="D11" t="n">
+        <v>484191.81</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>59322.28</v>
       </c>
+      <c r="D12" t="n">
+        <v>59323.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>13039.74</v>
       </c>
+      <c r="D13" t="n">
+        <v>13013.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>1675673.22</v>
       </c>
+      <c r="D14" t="n">
+        <v>1612861.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>190918.76</v>
       </c>
+      <c r="D15" t="n">
+        <v>197904.85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>434722.52</v>
       </c>
+      <c r="D16" t="n">
+        <v>434941.74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>5478700.07</v>
       </c>
+      <c r="D17" t="n">
+        <v>5466515.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -665,6 +718,9 @@
       <c r="C18" t="n">
         <v>40202.68</v>
       </c>
+      <c r="D18" t="n">
+        <v>40218.24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -676,6 +732,9 @@
         <v>3718020.23</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>3622237.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -687,6 +746,9 @@
         <v>1128360.79</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1043514.09</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -698,6 +760,9 @@
         <v>500230.26</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>500249.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -709,6 +774,9 @@
         <v>19993.64</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>16550.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -720,6 +788,9 @@
         <v>45407.82</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>36790.57</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -731,6 +802,9 @@
         <v>3101616.47</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>2997351.81</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -742,6 +816,9 @@
         <v>297494.04</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>298379.17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -753,6 +830,9 @@
         <v>1409067.53</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1457206.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -764,6 +844,9 @@
         <v>1386031.58</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1494802.26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -775,6 +858,9 @@
         <v>1860247.18</v>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>2359610.82</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -788,6 +874,9 @@
       <c r="C29" t="n">
         <v>1317442.24</v>
       </c>
+      <c r="D29" t="n">
+        <v>1358597.38</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -801,6 +890,9 @@
       <c r="C30" t="n">
         <v>303875.61</v>
       </c>
+      <c r="D30" t="n">
+        <v>173997.99</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -814,6 +906,9 @@
       <c r="C31" t="n">
         <v>5641847.99</v>
       </c>
+      <c r="D31" t="n">
+        <v>5643093.52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -827,6 +922,9 @@
       <c r="C32" t="n">
         <v>237028.35</v>
       </c>
+      <c r="D32" t="n">
+        <v>227086.86</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -840,6 +938,9 @@
       <c r="C33" t="n">
         <v>50988.11</v>
       </c>
+      <c r="D33" t="n">
+        <v>50994.84</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -853,6 +954,9 @@
       <c r="C34" t="n">
         <v>587771.51</v>
       </c>
+      <c r="D34" t="n">
+        <v>577959.78</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -866,6 +970,9 @@
       <c r="C35" t="n">
         <v>1395133.34</v>
       </c>
+      <c r="D35" t="n">
+        <v>1188931.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -879,6 +986,9 @@
       <c r="C36" t="n">
         <v>200806.93</v>
       </c>
+      <c r="D36" t="n">
+        <v>257643.54</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -892,6 +1002,9 @@
       <c r="C37" t="n">
         <v>31316.24</v>
       </c>
+      <c r="D37" t="n">
+        <v>35211.58</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -905,6 +1018,9 @@
       <c r="C38" t="n">
         <v>277947.33</v>
       </c>
+      <c r="D38" t="n">
+        <v>282982.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -918,6 +1034,9 @@
       <c r="C39" t="n">
         <v>212751.82</v>
       </c>
+      <c r="D39" t="n">
+        <v>212767.56</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -931,6 +1050,9 @@
       <c r="C40" t="n">
         <v>159108.49</v>
       </c>
+      <c r="D40" t="n">
+        <v>118223.09</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -942,6 +1064,9 @@
         <v>569589.4</v>
       </c>
       <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>632973.49</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -955,6 +1080,9 @@
       <c r="C42" t="n">
         <v>1153463.4</v>
       </c>
+      <c r="D42" t="n">
+        <v>1152896.62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -968,6 +1096,9 @@
       <c r="C43" t="n">
         <v>341388.75</v>
       </c>
+      <c r="D43" t="n">
+        <v>391334.12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -981,6 +1112,9 @@
       <c r="C44" t="n">
         <v>507295.27</v>
       </c>
+      <c r="D44" t="n">
+        <v>507817.03</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -994,6 +1128,9 @@
       <c r="C45" t="n">
         <v>367494.79</v>
       </c>
+      <c r="D45" t="n">
+        <v>344744.48</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1007,6 +1144,9 @@
       <c r="C46" t="n">
         <v>2313158.64</v>
       </c>
+      <c r="D46" t="n">
+        <v>2313073.16</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1020,6 +1160,9 @@
       <c r="C47" t="n">
         <v>3981960.68</v>
       </c>
+      <c r="D47" t="n">
+        <v>3941193.12</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1033,6 +1176,9 @@
       <c r="C48" t="n">
         <v>7475061.99</v>
       </c>
+      <c r="D48" t="n">
+        <v>8406768.09</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1046,6 +1192,9 @@
       <c r="C49" t="n">
         <v>41495.97</v>
       </c>
+      <c r="D49" t="n">
+        <v>178973.59</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1059,6 +1208,9 @@
       <c r="C50" t="n">
         <v>190746.08</v>
       </c>
+      <c r="D50" t="n">
+        <v>190775.88</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1072,6 +1224,9 @@
       <c r="C51" t="n">
         <v>88448.78</v>
       </c>
+      <c r="D51" t="n">
+        <v>88365.92</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1085,6 +1240,9 @@
       <c r="C52" t="n">
         <v>1071113.01</v>
       </c>
+      <c r="D52" t="n">
+        <v>1145062.76</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1097,6 +1255,9 @@
       </c>
       <c r="C53" t="n">
         <v>41773407.37</v>
+      </c>
+      <c r="D53" t="n">
+        <v>57253137.83</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>951424.87</v>
       </c>
+      <c r="E2" t="n">
+        <v>1004224.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>2054790.46</v>
       </c>
+      <c r="E3" t="n">
+        <v>2181128.59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>211212.81</v>
       </c>
+      <c r="E4" t="n">
+        <v>211288.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>440779.01</v>
       </c>
+      <c r="E5" t="n">
+        <v>465560.74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>657942.6</v>
       </c>
+      <c r="E6" t="n">
+        <v>658007.58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>2121845.09</v>
       </c>
+      <c r="E7" t="n">
+        <v>2121459.97</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>59638.56</v>
       </c>
+      <c r="E8" t="n">
+        <v>60126.72</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>328793.63</v>
       </c>
+      <c r="E9" t="n">
+        <v>328696.83</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>14640.92</v>
       </c>
+      <c r="E10" t="n">
+        <v>14681.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>484191.81</v>
       </c>
+      <c r="E11" t="n">
+        <v>480976.69</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>59323.9</v>
       </c>
+      <c r="E12" t="n">
+        <v>59282.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>13013.32</v>
       </c>
+      <c r="E13" t="n">
+        <v>13021.64</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>1612861.63</v>
       </c>
+      <c r="E14" t="n">
+        <v>1620808.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>197904.85</v>
       </c>
+      <c r="E15" t="n">
+        <v>205602.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -689,6 +736,9 @@
       <c r="D16" t="n">
         <v>434941.74</v>
       </c>
+      <c r="E16" t="n">
+        <v>434605.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -705,6 +755,9 @@
       <c r="D17" t="n">
         <v>5466515.1</v>
       </c>
+      <c r="E17" t="n">
+        <v>5407769.52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -720,6 +773,9 @@
       </c>
       <c r="D18" t="n">
         <v>40218.24</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40203.08</v>
       </c>
     </row>
     <row r="19">
@@ -735,6 +791,9 @@
       <c r="D19" t="n">
         <v>3622237.5</v>
       </c>
+      <c r="E19" t="n">
+        <v>3622150.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -749,6 +808,9 @@
       <c r="D20" t="n">
         <v>1043514.09</v>
       </c>
+      <c r="E20" t="n">
+        <v>1043142.73</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -763,6 +825,9 @@
       <c r="D21" t="n">
         <v>500249.45</v>
       </c>
+      <c r="E21" t="n">
+        <v>500340.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -777,6 +842,9 @@
       <c r="D22" t="n">
         <v>16550.5</v>
       </c>
+      <c r="E22" t="n">
+        <v>16544.36</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -791,6 +859,9 @@
       <c r="D23" t="n">
         <v>36790.57</v>
       </c>
+      <c r="E23" t="n">
+        <v>36787.71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -805,6 +876,9 @@
       <c r="D24" t="n">
         <v>2997351.81</v>
       </c>
+      <c r="E24" t="n">
+        <v>2943804.36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -819,6 +893,9 @@
       <c r="D25" t="n">
         <v>298379.17</v>
       </c>
+      <c r="E25" t="n">
+        <v>296598.72</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -833,6 +910,9 @@
       <c r="D26" t="n">
         <v>1457206.68</v>
       </c>
+      <c r="E26" t="n">
+        <v>1618645.03</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -847,6 +927,9 @@
       <c r="D27" t="n">
         <v>1494802.26</v>
       </c>
+      <c r="E27" t="n">
+        <v>1535279.55</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -861,6 +944,9 @@
       <c r="D28" t="n">
         <v>2359610.82</v>
       </c>
+      <c r="E28" t="n">
+        <v>2613295.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -877,6 +963,9 @@
       <c r="D29" t="n">
         <v>1358597.38</v>
       </c>
+      <c r="E29" t="n">
+        <v>1437444.81</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -893,6 +982,9 @@
       <c r="D30" t="n">
         <v>173997.99</v>
       </c>
+      <c r="E30" t="n">
+        <v>174063.52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -909,6 +1001,9 @@
       <c r="D31" t="n">
         <v>5643093.52</v>
       </c>
+      <c r="E31" t="n">
+        <v>5642648.24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -925,6 +1020,9 @@
       <c r="D32" t="n">
         <v>227086.86</v>
       </c>
+      <c r="E32" t="n">
+        <v>246944.91</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -941,6 +1039,9 @@
       <c r="D33" t="n">
         <v>50994.84</v>
       </c>
+      <c r="E33" t="n">
+        <v>50978.77</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -957,6 +1058,9 @@
       <c r="D34" t="n">
         <v>577959.78</v>
       </c>
+      <c r="E34" t="n">
+        <v>578251.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -973,6 +1077,9 @@
       <c r="D35" t="n">
         <v>1188931.85</v>
       </c>
+      <c r="E35" t="n">
+        <v>1189231.46</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -989,6 +1096,9 @@
       <c r="D36" t="n">
         <v>257643.54</v>
       </c>
+      <c r="E36" t="n">
+        <v>269903.37</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1005,6 +1115,9 @@
       <c r="D37" t="n">
         <v>35211.58</v>
       </c>
+      <c r="E37" t="n">
+        <v>35242.48</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1021,6 +1134,9 @@
       <c r="D38" t="n">
         <v>282982.95</v>
       </c>
+      <c r="E38" t="n">
+        <v>311889.04</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1037,6 +1153,9 @@
       <c r="D39" t="n">
         <v>212767.56</v>
       </c>
+      <c r="E39" t="n">
+        <v>212837.61</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1052,6 +1171,9 @@
       </c>
       <c r="D40" t="n">
         <v>118223.09</v>
+      </c>
+      <c r="E40" t="n">
+        <v>146343.24</v>
       </c>
     </row>
     <row r="41">
@@ -1067,6 +1189,9 @@
       <c r="D41" t="n">
         <v>632973.49</v>
       </c>
+      <c r="E41" t="n">
+        <v>633372.9399999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1083,6 +1208,9 @@
       <c r="D42" t="n">
         <v>1152896.62</v>
       </c>
+      <c r="E42" t="n">
+        <v>1374703.58</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1099,6 +1227,9 @@
       <c r="D43" t="n">
         <v>391334.12</v>
       </c>
+      <c r="E43" t="n">
+        <v>391400.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1115,6 +1246,9 @@
       <c r="D44" t="n">
         <v>507817.03</v>
       </c>
+      <c r="E44" t="n">
+        <v>507709.39</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1131,6 +1265,9 @@
       <c r="D45" t="n">
         <v>344744.48</v>
       </c>
+      <c r="E45" t="n">
+        <v>338263.33</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1147,6 +1284,9 @@
       <c r="D46" t="n">
         <v>2313073.16</v>
       </c>
+      <c r="E46" t="n">
+        <v>2401164.53</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1163,6 +1303,9 @@
       <c r="D47" t="n">
         <v>3941193.12</v>
       </c>
+      <c r="E47" t="n">
+        <v>3941255.63</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1179,6 +1322,7 @@
       <c r="D48" t="n">
         <v>8406768.09</v>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1195,6 +1339,9 @@
       <c r="D49" t="n">
         <v>178973.59</v>
       </c>
+      <c r="E49" t="n">
+        <v>177648.58</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1211,6 +1358,9 @@
       <c r="D50" t="n">
         <v>190775.88</v>
       </c>
+      <c r="E50" t="n">
+        <v>202926</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1227,6 +1377,7 @@
       <c r="D51" t="n">
         <v>88365.92</v>
       </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1243,6 +1394,9 @@
       <c r="D52" t="n">
         <v>1145062.76</v>
       </c>
+      <c r="E52" t="n">
+        <v>1037463.68</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1258,6 +1412,9 @@
       </c>
       <c r="D53" t="n">
         <v>57253137.83</v>
+      </c>
+      <c r="E53" t="n">
+        <v>49798256.77</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>1004224.8</v>
       </c>
+      <c r="F2" t="n">
+        <v>1003943.48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>2181128.59</v>
       </c>
+      <c r="F3" t="n">
+        <v>2097522.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>211288.24</v>
       </c>
+      <c r="F4" t="n">
+        <v>211211.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>465560.74</v>
       </c>
+      <c r="F5" t="n">
+        <v>465464.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>658007.58</v>
       </c>
+      <c r="F6" t="n">
+        <v>658359.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>2121459.97</v>
       </c>
+      <c r="F7" t="n">
+        <v>2120596.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>60126.72</v>
       </c>
+      <c r="F8" t="n">
+        <v>60133.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>328696.83</v>
       </c>
+      <c r="F9" t="n">
+        <v>328817.89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>14681.79</v>
       </c>
+      <c r="F10" t="n">
+        <v>14630.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>480976.69</v>
       </c>
+      <c r="F11" t="n">
+        <v>480673.81</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>59282.25</v>
       </c>
+      <c r="F12" t="n">
+        <v>59145.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>13021.64</v>
       </c>
+      <c r="F13" t="n">
+        <v>13001.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>1620808.06</v>
       </c>
+      <c r="F14" t="n">
+        <v>1646250.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,7 @@
       <c r="E15" t="n">
         <v>205602.39</v>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -739,6 +784,9 @@
       <c r="E16" t="n">
         <v>434605.53</v>
       </c>
+      <c r="F16" t="n">
+        <v>434934.52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -758,6 +806,9 @@
       <c r="E17" t="n">
         <v>5407769.52</v>
       </c>
+      <c r="F17" t="n">
+        <v>5383358.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -776,6 +827,9 @@
       </c>
       <c r="E18" t="n">
         <v>40203.08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40213.75</v>
       </c>
     </row>
     <row r="19">
@@ -794,6 +848,9 @@
       <c r="E19" t="n">
         <v>3622150.31</v>
       </c>
+      <c r="F19" t="n">
+        <v>3603438.56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -811,6 +868,9 @@
       <c r="E20" t="n">
         <v>1043142.73</v>
       </c>
+      <c r="F20" t="n">
+        <v>1043012.65</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -828,6 +888,9 @@
       <c r="E21" t="n">
         <v>500340.49</v>
       </c>
+      <c r="F21" t="n">
+        <v>500113.67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -845,6 +908,9 @@
       <c r="E22" t="n">
         <v>16544.36</v>
       </c>
+      <c r="F22" t="n">
+        <v>16542.54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -862,6 +928,9 @@
       <c r="E23" t="n">
         <v>36787.71</v>
       </c>
+      <c r="F23" t="n">
+        <v>36783.09</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -879,6 +948,9 @@
       <c r="E24" t="n">
         <v>2943804.36</v>
       </c>
+      <c r="F24" t="n">
+        <v>2851242.69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +968,9 @@
       <c r="E25" t="n">
         <v>296598.72</v>
       </c>
+      <c r="F25" t="n">
+        <v>297937.56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -913,6 +988,9 @@
       <c r="E26" t="n">
         <v>1618645.03</v>
       </c>
+      <c r="F26" t="n">
+        <v>1678779.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -930,6 +1008,9 @@
       <c r="E27" t="n">
         <v>1535279.55</v>
       </c>
+      <c r="F27" t="n">
+        <v>1545419.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -947,6 +1028,9 @@
       <c r="E28" t="n">
         <v>2613295.01</v>
       </c>
+      <c r="F28" t="n">
+        <v>2582560.55</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -966,6 +1050,9 @@
       <c r="E29" t="n">
         <v>1437444.81</v>
       </c>
+      <c r="F29" t="n">
+        <v>1482660.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -985,6 +1072,9 @@
       <c r="E30" t="n">
         <v>174063.52</v>
       </c>
+      <c r="F30" t="n">
+        <v>174134.09</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1004,6 +1094,9 @@
       <c r="E31" t="n">
         <v>5642648.24</v>
       </c>
+      <c r="F31" t="n">
+        <v>5641784.79</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1023,6 +1116,9 @@
       <c r="E32" t="n">
         <v>246944.91</v>
       </c>
+      <c r="F32" t="n">
+        <v>247078.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1042,6 +1138,9 @@
       <c r="E33" t="n">
         <v>50978.77</v>
       </c>
+      <c r="F33" t="n">
+        <v>51003.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1061,6 +1160,9 @@
       <c r="E34" t="n">
         <v>578251.95</v>
       </c>
+      <c r="F34" t="n">
+        <v>578069.55</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1080,6 +1182,9 @@
       <c r="E35" t="n">
         <v>1189231.46</v>
       </c>
+      <c r="F35" t="n">
+        <v>1188785.33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1099,6 +1204,9 @@
       <c r="E36" t="n">
         <v>269903.37</v>
       </c>
+      <c r="F36" t="n">
+        <v>267304.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1118,6 +1226,9 @@
       <c r="E37" t="n">
         <v>35242.48</v>
       </c>
+      <c r="F37" t="n">
+        <v>35221.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1137,6 +1248,9 @@
       <c r="E38" t="n">
         <v>311889.04</v>
       </c>
+      <c r="F38" t="n">
+        <v>319503.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1156,6 +1270,9 @@
       <c r="E39" t="n">
         <v>212837.61</v>
       </c>
+      <c r="F39" t="n">
+        <v>212794.52</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1174,6 +1291,9 @@
       </c>
       <c r="E40" t="n">
         <v>146343.24</v>
+      </c>
+      <c r="F40" t="n">
+        <v>146297.02</v>
       </c>
     </row>
     <row r="41">
@@ -1192,6 +1312,9 @@
       <c r="E41" t="n">
         <v>633372.9399999999</v>
       </c>
+      <c r="F41" t="n">
+        <v>678311.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1211,6 +1334,9 @@
       <c r="E42" t="n">
         <v>1374703.58</v>
       </c>
+      <c r="F42" t="n">
+        <v>1375008.46</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1230,6 +1356,9 @@
       <c r="E43" t="n">
         <v>391400.7</v>
       </c>
+      <c r="F43" t="n">
+        <v>424411.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1249,6 +1378,9 @@
       <c r="E44" t="n">
         <v>507709.39</v>
       </c>
+      <c r="F44" t="n">
+        <v>529014.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1268,6 +1400,9 @@
       <c r="E45" t="n">
         <v>338263.33</v>
       </c>
+      <c r="F45" t="n">
+        <v>366733.31</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1287,6 +1422,9 @@
       <c r="E46" t="n">
         <v>2401164.53</v>
       </c>
+      <c r="F46" t="n">
+        <v>2400868.02</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1306,6 +1444,9 @@
       <c r="E47" t="n">
         <v>3941255.63</v>
       </c>
+      <c r="F47" t="n">
+        <v>3942389.52</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1323,6 +1464,7 @@
         <v>8406768.09</v>
       </c>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1342,6 +1484,9 @@
       <c r="E49" t="n">
         <v>177648.58</v>
       </c>
+      <c r="F49" t="n">
+        <v>177139.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1361,6 +1506,9 @@
       <c r="E50" t="n">
         <v>202926</v>
       </c>
+      <c r="F50" t="n">
+        <v>203024.26</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1378,6 +1526,7 @@
         <v>88365.92</v>
       </c>
       <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1397,6 +1546,9 @@
       <c r="E52" t="n">
         <v>1037463.68</v>
       </c>
+      <c r="F52" t="n">
+        <v>1055651.6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1415,6 +1567,9 @@
       </c>
       <c r="E53" t="n">
         <v>49798256.77</v>
+      </c>
+      <c r="F53" t="n">
+        <v>49615625.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>1003943.48</v>
       </c>
+      <c r="G2" t="n">
+        <v>1004459.38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>2097522.72</v>
       </c>
+      <c r="G3" t="n">
+        <v>2123413</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>211211.04</v>
       </c>
+      <c r="G4" t="n">
+        <v>212307.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>465464.9</v>
       </c>
+      <c r="G5" t="n">
+        <v>465428.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>658359.03</v>
       </c>
+      <c r="G6" t="n">
+        <v>658394.5600000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>2120596.17</v>
       </c>
+      <c r="G7" t="n">
+        <v>2120566.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>60133.3</v>
       </c>
+      <c r="G8" t="n">
+        <v>60358.58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>328817.89</v>
       </c>
+      <c r="G9" t="n">
+        <v>328774.91</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>14630.41</v>
       </c>
+      <c r="G10" t="n">
+        <v>14701.81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>480673.81</v>
       </c>
+      <c r="G11" t="n">
+        <v>483649.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>59145.65</v>
       </c>
+      <c r="G12" t="n">
+        <v>59184.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>13001.36</v>
       </c>
+      <c r="G13" t="n">
+        <v>13010.45</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>1646250.41</v>
       </c>
+      <c r="G14" t="n">
+        <v>1668172.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -765,6 +809,7 @@
         <v>205602.39</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -787,6 +832,9 @@
       <c r="F16" t="n">
         <v>434934.52</v>
       </c>
+      <c r="G16" t="n">
+        <v>434833.61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -809,6 +857,9 @@
       <c r="F17" t="n">
         <v>5383358.24</v>
       </c>
+      <c r="G17" t="n">
+        <v>5308848.31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -830,6 +881,9 @@
       </c>
       <c r="F18" t="n">
         <v>40213.75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40216.45</v>
       </c>
     </row>
     <row r="19">
@@ -851,6 +905,9 @@
       <c r="F19" t="n">
         <v>3603438.56</v>
       </c>
+      <c r="G19" t="n">
+        <v>3550336.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -871,6 +928,9 @@
       <c r="F20" t="n">
         <v>1043012.65</v>
       </c>
+      <c r="G20" t="n">
+        <v>1043023.22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -891,6 +951,9 @@
       <c r="F21" t="n">
         <v>500113.67</v>
       </c>
+      <c r="G21" t="n">
+        <v>500062.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -911,6 +974,9 @@
       <c r="F22" t="n">
         <v>16542.54</v>
       </c>
+      <c r="G22" t="n">
+        <v>16556.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -931,6 +997,9 @@
       <c r="F23" t="n">
         <v>36783.09</v>
       </c>
+      <c r="G23" t="n">
+        <v>36781.78</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -951,6 +1020,9 @@
       <c r="F24" t="n">
         <v>2851242.69</v>
       </c>
+      <c r="G24" t="n">
+        <v>2793601.56</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -971,6 +1043,9 @@
       <c r="F25" t="n">
         <v>297937.56</v>
       </c>
+      <c r="G25" t="n">
+        <v>297810.46</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -991,6 +1066,9 @@
       <c r="F26" t="n">
         <v>1678779.59</v>
       </c>
+      <c r="G26" t="n">
+        <v>1655625.54</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1011,6 +1089,9 @@
       <c r="F27" t="n">
         <v>1545419.92</v>
       </c>
+      <c r="G27" t="n">
+        <v>1526230.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1031,6 +1112,9 @@
       <c r="F28" t="n">
         <v>2582560.55</v>
       </c>
+      <c r="G28" t="n">
+        <v>2582685.63</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1053,6 +1137,9 @@
       <c r="F29" t="n">
         <v>1482660.1</v>
       </c>
+      <c r="G29" t="n">
+        <v>1502422.53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1075,6 +1162,9 @@
       <c r="F30" t="n">
         <v>174134.09</v>
       </c>
+      <c r="G30" t="n">
+        <v>173883.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1097,6 +1187,9 @@
       <c r="F31" t="n">
         <v>5641784.79</v>
       </c>
+      <c r="G31" t="n">
+        <v>5860180.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1119,6 +1212,9 @@
       <c r="F32" t="n">
         <v>247078.44</v>
       </c>
+      <c r="G32" t="n">
+        <v>246958.21</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1141,6 +1237,9 @@
       <c r="F33" t="n">
         <v>51003.08</v>
       </c>
+      <c r="G33" t="n">
+        <v>50980.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1163,6 +1262,9 @@
       <c r="F34" t="n">
         <v>578069.55</v>
       </c>
+      <c r="G34" t="n">
+        <v>563339.09</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1185,6 +1287,9 @@
       <c r="F35" t="n">
         <v>1188785.33</v>
       </c>
+      <c r="G35" t="n">
+        <v>1189097.19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1207,6 +1312,9 @@
       <c r="F36" t="n">
         <v>267304.8</v>
       </c>
+      <c r="G36" t="n">
+        <v>267477.73</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1229,6 +1337,9 @@
       <c r="F37" t="n">
         <v>35221.13</v>
       </c>
+      <c r="G37" t="n">
+        <v>35211.37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1251,6 +1362,9 @@
       <c r="F38" t="n">
         <v>319503.3</v>
       </c>
+      <c r="G38" t="n">
+        <v>319578.52</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1273,6 +1387,9 @@
       <c r="F39" t="n">
         <v>212794.52</v>
       </c>
+      <c r="G39" t="n">
+        <v>212806.69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1294,6 +1411,9 @@
       </c>
       <c r="F40" t="n">
         <v>146297.02</v>
+      </c>
+      <c r="G40" t="n">
+        <v>146187.03</v>
       </c>
     </row>
     <row r="41">
@@ -1315,6 +1435,9 @@
       <c r="F41" t="n">
         <v>678311.5</v>
       </c>
+      <c r="G41" t="n">
+        <v>696351.76</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1337,6 +1460,9 @@
       <c r="F42" t="n">
         <v>1375008.46</v>
       </c>
+      <c r="G42" t="n">
+        <v>1374769.03</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1359,6 +1485,9 @@
       <c r="F43" t="n">
         <v>424411.75</v>
       </c>
+      <c r="G43" t="n">
+        <v>409263.76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1381,6 +1510,9 @@
       <c r="F44" t="n">
         <v>529014.8</v>
       </c>
+      <c r="G44" t="n">
+        <v>528666.12</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1403,6 +1535,9 @@
       <c r="F45" t="n">
         <v>366733.31</v>
       </c>
+      <c r="G45" t="n">
+        <v>385735.05</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1425,6 +1560,9 @@
       <c r="F46" t="n">
         <v>2400868.02</v>
       </c>
+      <c r="G46" t="n">
+        <v>2400428.27</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1447,6 +1585,9 @@
       <c r="F47" t="n">
         <v>3942389.52</v>
       </c>
+      <c r="G47" t="n">
+        <v>3941672.52</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1465,6 +1606,7 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1487,6 +1629,9 @@
       <c r="F49" t="n">
         <v>177139.95</v>
       </c>
+      <c r="G49" t="n">
+        <v>178973.29</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1509,6 +1654,9 @@
       <c r="F50" t="n">
         <v>203024.26</v>
       </c>
+      <c r="G50" t="n">
+        <v>203008.57</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1527,6 +1675,7 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1549,6 +1698,9 @@
       <c r="F52" t="n">
         <v>1055651.6</v>
       </c>
+      <c r="G52" t="n">
+        <v>1057149.45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1570,6 +1722,9 @@
       </c>
       <c r="F53" t="n">
         <v>49615625.22</v>
+      </c>
+      <c r="G53" t="n">
+        <v>49686024.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>1004459.38</v>
       </c>
+      <c r="H2" t="n">
+        <v>1004362.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>2123413</v>
       </c>
+      <c r="H3" t="n">
+        <v>2026945.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>212307.27</v>
       </c>
+      <c r="H4" t="n">
+        <v>211067.56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>465428.34</v>
       </c>
+      <c r="H5" t="n">
+        <v>465364.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>658394.5600000001</v>
       </c>
+      <c r="H6" t="n">
+        <v>658133.22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>2120566.16</v>
       </c>
+      <c r="H7" t="n">
+        <v>2121909.71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>60358.58</v>
       </c>
+      <c r="H8" t="n">
+        <v>60286.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>328774.91</v>
       </c>
+      <c r="H9" t="n">
+        <v>328525.88</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>14701.81</v>
       </c>
+      <c r="H10" t="n">
+        <v>14699.51</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>483649.54</v>
       </c>
+      <c r="H11" t="n">
+        <v>484293.07</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>59184.6</v>
       </c>
+      <c r="H12" t="n">
+        <v>59187</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>13010.45</v>
       </c>
+      <c r="H13" t="n">
+        <v>13024.99</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>1668172.55</v>
       </c>
+      <c r="H14" t="n">
+        <v>1677670.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -810,6 +854,7 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -835,6 +880,9 @@
       <c r="G16" t="n">
         <v>434833.61</v>
       </c>
+      <c r="H16" t="n">
+        <v>434836.69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -860,6 +908,9 @@
       <c r="G17" t="n">
         <v>5308848.31</v>
       </c>
+      <c r="H17" t="n">
+        <v>5309507.14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -884,6 +935,9 @@
       </c>
       <c r="G18" t="n">
         <v>40216.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>40211.6</v>
       </c>
     </row>
     <row r="19">
@@ -908,6 +962,9 @@
       <c r="G19" t="n">
         <v>3550336.11</v>
       </c>
+      <c r="H19" t="n">
+        <v>3531769.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -931,6 +988,9 @@
       <c r="G20" t="n">
         <v>1043023.22</v>
       </c>
+      <c r="H20" t="n">
+        <v>1061196.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -954,6 +1014,9 @@
       <c r="G21" t="n">
         <v>500062.05</v>
       </c>
+      <c r="H21" t="n">
+        <v>500108.68</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -977,6 +1040,9 @@
       <c r="G22" t="n">
         <v>16556.61</v>
       </c>
+      <c r="H22" t="n">
+        <v>16547.96</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1000,6 +1066,9 @@
       <c r="G23" t="n">
         <v>36781.78</v>
       </c>
+      <c r="H23" t="n">
+        <v>36778.38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1023,6 +1092,9 @@
       <c r="G24" t="n">
         <v>2793601.56</v>
       </c>
+      <c r="H24" t="n">
+        <v>2792482.88</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1046,6 +1118,9 @@
       <c r="G25" t="n">
         <v>297810.46</v>
       </c>
+      <c r="H25" t="n">
+        <v>298437.45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1069,6 +1144,9 @@
       <c r="G26" t="n">
         <v>1655625.54</v>
       </c>
+      <c r="H26" t="n">
+        <v>1606862.93</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1092,6 +1170,9 @@
       <c r="G27" t="n">
         <v>1526230.24</v>
       </c>
+      <c r="H27" t="n">
+        <v>1466254.76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1115,6 +1196,9 @@
       <c r="G28" t="n">
         <v>2582685.63</v>
       </c>
+      <c r="H28" t="n">
+        <v>2581765.98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1140,6 +1224,9 @@
       <c r="G29" t="n">
         <v>1502422.53</v>
       </c>
+      <c r="H29" t="n">
+        <v>1502213.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1165,6 +1252,9 @@
       <c r="G30" t="n">
         <v>173883.95</v>
       </c>
+      <c r="H30" t="n">
+        <v>174266.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1190,6 +1280,9 @@
       <c r="G31" t="n">
         <v>5860180.53</v>
       </c>
+      <c r="H31" t="n">
+        <v>6112676.52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1215,6 +1308,9 @@
       <c r="G32" t="n">
         <v>246958.21</v>
       </c>
+      <c r="H32" t="n">
+        <v>246925.34</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1240,6 +1336,9 @@
       <c r="G33" t="n">
         <v>50980.45</v>
       </c>
+      <c r="H33" t="n">
+        <v>51014.39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1265,6 +1364,9 @@
       <c r="G34" t="n">
         <v>563339.09</v>
       </c>
+      <c r="H34" t="n">
+        <v>572717.74</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1290,6 +1392,9 @@
       <c r="G35" t="n">
         <v>1189097.19</v>
       </c>
+      <c r="H35" t="n">
+        <v>1188876.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1315,6 +1420,9 @@
       <c r="G36" t="n">
         <v>267477.73</v>
       </c>
+      <c r="H36" t="n">
+        <v>317594.65</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1340,6 +1448,9 @@
       <c r="G37" t="n">
         <v>35211.37</v>
       </c>
+      <c r="H37" t="n">
+        <v>35216.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1365,6 +1476,9 @@
       <c r="G38" t="n">
         <v>319578.52</v>
       </c>
+      <c r="H38" t="n">
+        <v>319443.36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1390,6 +1504,9 @@
       <c r="G39" t="n">
         <v>212806.69</v>
       </c>
+      <c r="H39" t="n">
+        <v>212777.28</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1414,6 +1531,9 @@
       </c>
       <c r="G40" t="n">
         <v>146187.03</v>
+      </c>
+      <c r="H40" t="n">
+        <v>146340.82</v>
       </c>
     </row>
     <row r="41">
@@ -1438,6 +1558,9 @@
       <c r="G41" t="n">
         <v>696351.76</v>
       </c>
+      <c r="H41" t="n">
+        <v>786208.45</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1463,6 +1586,9 @@
       <c r="G42" t="n">
         <v>1374769.03</v>
       </c>
+      <c r="H42" t="n">
+        <v>1374909.07</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1488,6 +1614,9 @@
       <c r="G43" t="n">
         <v>409263.76</v>
       </c>
+      <c r="H43" t="n">
+        <v>431351.92</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1513,6 +1642,9 @@
       <c r="G44" t="n">
         <v>528666.12</v>
       </c>
+      <c r="H44" t="n">
+        <v>528720.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1538,6 +1670,9 @@
       <c r="G45" t="n">
         <v>385735.05</v>
       </c>
+      <c r="H45" t="n">
+        <v>386483.71</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1563,6 +1698,9 @@
       <c r="G46" t="n">
         <v>2400428.27</v>
       </c>
+      <c r="H46" t="n">
+        <v>2311754.86</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1587,6 +1725,9 @@
       </c>
       <c r="G47" t="n">
         <v>3941672.52</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3903743.64</v>
       </c>
     </row>
     <row r="48">
@@ -1607,6 +1748,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1632,6 +1774,9 @@
       <c r="G49" t="n">
         <v>178973.29</v>
       </c>
+      <c r="H49" t="n">
+        <v>180718.48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1656,6 +1801,9 @@
       </c>
       <c r="G50" t="n">
         <v>203008.57</v>
+      </c>
+      <c r="H50" t="n">
+        <v>202939.5</v>
       </c>
     </row>
     <row r="51">
@@ -1676,6 +1824,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1701,6 +1850,9 @@
       <c r="G52" t="n">
         <v>1057149.45</v>
       </c>
+      <c r="H52" t="n">
+        <v>1059343.05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1725,6 +1877,9 @@
       </c>
       <c r="G53" t="n">
         <v>49686024.38</v>
+      </c>
+      <c r="H53" t="n">
+        <v>49789123.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>1004362.04</v>
       </c>
+      <c r="I2" t="n">
+        <v>927768.5600000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>2026945.65</v>
       </c>
+      <c r="I3" t="n">
+        <v>2026217.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>211067.56</v>
       </c>
+      <c r="I4" t="n">
+        <v>211040.69</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>465364.01</v>
       </c>
+      <c r="I5" t="n">
+        <v>465643.84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>658133.22</v>
       </c>
+      <c r="I6" t="n">
+        <v>658718.59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>2121909.71</v>
       </c>
+      <c r="I7" t="n">
+        <v>2120791.07</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>60286.51</v>
       </c>
+      <c r="I8" t="n">
+        <v>60194.15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>328525.88</v>
       </c>
+      <c r="I9" t="n">
+        <v>328690.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>14699.51</v>
       </c>
+      <c r="I10" t="n">
+        <v>14603.51</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>484293.07</v>
       </c>
+      <c r="I11" t="n">
+        <v>485074.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>59187</v>
       </c>
+      <c r="I12" t="n">
+        <v>59151.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>13024.99</v>
       </c>
+      <c r="I13" t="n">
+        <v>13004.62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -832,6 +873,9 @@
       </c>
       <c r="H14" t="n">
         <v>1677670.85</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1665821.69</v>
       </c>
     </row>
     <row r="15">
@@ -855,6 +899,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -883,6 +928,9 @@
       <c r="H16" t="n">
         <v>434836.69</v>
       </c>
+      <c r="I16" t="n">
+        <v>434747.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -911,6 +959,9 @@
       <c r="H17" t="n">
         <v>5309507.14</v>
       </c>
+      <c r="I17" t="n">
+        <v>5283728.39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -938,6 +989,9 @@
       </c>
       <c r="H18" t="n">
         <v>40211.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40217.83</v>
       </c>
     </row>
     <row r="19">
@@ -965,6 +1019,9 @@
       <c r="H19" t="n">
         <v>3531769.02</v>
       </c>
+      <c r="I19" t="n">
+        <v>3320625.63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -991,6 +1048,9 @@
       <c r="H20" t="n">
         <v>1061196.9</v>
       </c>
+      <c r="I20" t="n">
+        <v>1060663.62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1017,6 +1077,9 @@
       <c r="H21" t="n">
         <v>500108.68</v>
       </c>
+      <c r="I21" t="n">
+        <v>500014.61</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,6 +1106,9 @@
       <c r="H22" t="n">
         <v>16547.96</v>
       </c>
+      <c r="I22" t="n">
+        <v>16543.89</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1069,6 +1135,9 @@
       <c r="H23" t="n">
         <v>36778.38</v>
       </c>
+      <c r="I23" t="n">
+        <v>36773.83</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1095,6 +1164,9 @@
       <c r="H24" t="n">
         <v>2792482.88</v>
       </c>
+      <c r="I24" t="n">
+        <v>2792747.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1121,6 +1193,9 @@
       <c r="H25" t="n">
         <v>298437.45</v>
       </c>
+      <c r="I25" t="n">
+        <v>298451.58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1147,6 +1222,9 @@
       <c r="H26" t="n">
         <v>1606862.93</v>
       </c>
+      <c r="I26" t="n">
+        <v>1555889.37</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1173,6 +1251,9 @@
       <c r="H27" t="n">
         <v>1466254.76</v>
       </c>
+      <c r="I27" t="n">
+        <v>1414152.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1280,9 @@
       <c r="H28" t="n">
         <v>2581765.98</v>
       </c>
+      <c r="I28" t="n">
+        <v>2582739.27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1227,6 +1311,9 @@
       <c r="H29" t="n">
         <v>1502213.6</v>
       </c>
+      <c r="I29" t="n">
+        <v>1502283.09</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1255,6 +1342,9 @@
       <c r="H30" t="n">
         <v>174266.86</v>
       </c>
+      <c r="I30" t="n">
+        <v>173825.66</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1283,6 +1373,9 @@
       <c r="H31" t="n">
         <v>6112676.52</v>
       </c>
+      <c r="I31" t="n">
+        <v>6111576.02</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1311,6 +1404,9 @@
       <c r="H32" t="n">
         <v>246925.34</v>
       </c>
+      <c r="I32" t="n">
+        <v>247094.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1339,6 +1435,9 @@
       <c r="H33" t="n">
         <v>51014.39</v>
       </c>
+      <c r="I33" t="n">
+        <v>50986.59</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1367,6 +1466,9 @@
       <c r="H34" t="n">
         <v>572717.74</v>
       </c>
+      <c r="I34" t="n">
+        <v>503139.77</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1395,6 +1497,9 @@
       <c r="H35" t="n">
         <v>1188876.03</v>
       </c>
+      <c r="I35" t="n">
+        <v>1189435.29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1423,6 +1528,9 @@
       <c r="H36" t="n">
         <v>317594.65</v>
       </c>
+      <c r="I36" t="n">
+        <v>317588.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1451,6 +1559,9 @@
       <c r="H37" t="n">
         <v>35216.6</v>
       </c>
+      <c r="I37" t="n">
+        <v>35223.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1479,6 +1590,9 @@
       <c r="H38" t="n">
         <v>319443.36</v>
       </c>
+      <c r="I38" t="n">
+        <v>319554.76</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1507,6 +1621,9 @@
       <c r="H39" t="n">
         <v>212777.28</v>
       </c>
+      <c r="I39" t="n">
+        <v>212759.84</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1534,6 +1651,9 @@
       </c>
       <c r="H40" t="n">
         <v>146340.82</v>
+      </c>
+      <c r="I40" t="n">
+        <v>146176.17</v>
       </c>
     </row>
     <row r="41">
@@ -1561,6 +1681,9 @@
       <c r="H41" t="n">
         <v>786208.45</v>
       </c>
+      <c r="I41" t="n">
+        <v>786255.46</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1589,6 +1712,9 @@
       <c r="H42" t="n">
         <v>1374909.07</v>
       </c>
+      <c r="I42" t="n">
+        <v>1374700.97</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1617,6 +1743,9 @@
       <c r="H43" t="n">
         <v>431351.92</v>
       </c>
+      <c r="I43" t="n">
+        <v>431393.98</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1645,6 +1774,9 @@
       <c r="H44" t="n">
         <v>528720.1</v>
       </c>
+      <c r="I44" t="n">
+        <v>528559.8100000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1673,6 +1805,9 @@
       <c r="H45" t="n">
         <v>386483.71</v>
       </c>
+      <c r="I45" t="n">
+        <v>386514.54</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1701,6 +1836,9 @@
       <c r="H46" t="n">
         <v>2311754.86</v>
       </c>
+      <c r="I46" t="n">
+        <v>2311945.92</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1728,6 +1866,9 @@
       </c>
       <c r="H47" t="n">
         <v>3903743.64</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3914646.49</v>
       </c>
     </row>
     <row r="48">
@@ -1749,6 +1890,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1777,6 +1919,9 @@
       <c r="H49" t="n">
         <v>180718.48</v>
       </c>
+      <c r="I49" t="n">
+        <v>178921.11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1804,6 +1949,9 @@
       </c>
       <c r="H50" t="n">
         <v>202939.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>202984.91</v>
       </c>
     </row>
     <row r="51">
@@ -1825,6 +1973,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1853,6 +2002,9 @@
       <c r="H52" t="n">
         <v>1059343.05</v>
       </c>
+      <c r="I52" t="n">
+        <v>1048927.28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1880,6 +2032,9 @@
       </c>
       <c r="H53" t="n">
         <v>49789123.29</v>
+      </c>
+      <c r="I53" t="n">
+        <v>49299582.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>927768.5600000001</v>
       </c>
+      <c r="J2" t="n">
+        <v>861650.91</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>2026217.15</v>
       </c>
+      <c r="J3" t="n">
+        <v>2058094.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>211040.69</v>
       </c>
+      <c r="J4" t="n">
+        <v>210982.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>465643.84</v>
       </c>
+      <c r="J5" t="n">
+        <v>465696.68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>658718.59</v>
       </c>
+      <c r="J6" t="n">
+        <v>658166.9300000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>2120791.07</v>
       </c>
+      <c r="J7" t="n">
+        <v>2120631.15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>60194.15</v>
       </c>
+      <c r="J8" t="n">
+        <v>60009.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>328690.59</v>
       </c>
+      <c r="J9" t="n">
+        <v>328515.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>14603.51</v>
       </c>
+      <c r="J10" t="n">
+        <v>14635.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>485074.8</v>
       </c>
+      <c r="J11" t="n">
+        <v>482947.79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>59151.02</v>
       </c>
+      <c r="J12" t="n">
+        <v>59126.88</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>13004.62</v>
       </c>
+      <c r="J13" t="n">
+        <v>13012.31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -876,6 +917,9 @@
       </c>
       <c r="I14" t="n">
         <v>1665821.69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1650765.16</v>
       </c>
     </row>
     <row r="15">
@@ -900,6 +944,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -931,6 +976,9 @@
       <c r="I16" t="n">
         <v>434747.34</v>
       </c>
+      <c r="J16" t="n">
+        <v>434730.67</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -962,6 +1010,9 @@
       <c r="I17" t="n">
         <v>5283728.39</v>
       </c>
+      <c r="J17" t="n">
+        <v>5236127.27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -992,6 +1043,9 @@
       </c>
       <c r="I18" t="n">
         <v>40217.83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>40201.4</v>
       </c>
     </row>
     <row r="19">
@@ -1022,6 +1076,9 @@
       <c r="I19" t="n">
         <v>3320625.63</v>
       </c>
+      <c r="J19" t="n">
+        <v>3031917.98</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1051,6 +1108,9 @@
       <c r="I20" t="n">
         <v>1060663.62</v>
       </c>
+      <c r="J20" t="n">
+        <v>847323.84</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1080,6 +1140,9 @@
       <c r="I21" t="n">
         <v>500014.61</v>
       </c>
+      <c r="J21" t="n">
+        <v>500375.36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1109,6 +1172,9 @@
       <c r="I22" t="n">
         <v>16543.89</v>
       </c>
+      <c r="J22" t="n">
+        <v>16545.39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1138,6 +1204,9 @@
       <c r="I23" t="n">
         <v>36773.83</v>
       </c>
+      <c r="J23" t="n">
+        <v>36791.12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1167,6 +1236,9 @@
       <c r="I24" t="n">
         <v>2792747.75</v>
       </c>
+      <c r="J24" t="n">
+        <v>2793141.06</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1196,6 +1268,9 @@
       <c r="I25" t="n">
         <v>298451.58</v>
       </c>
+      <c r="J25" t="n">
+        <v>297112.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1300,9 @@
       <c r="I26" t="n">
         <v>1555889.37</v>
       </c>
+      <c r="J26" t="n">
+        <v>1540438.84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1254,6 +1332,9 @@
       <c r="I27" t="n">
         <v>1414152.01</v>
       </c>
+      <c r="J27" t="n">
+        <v>1436303.46</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1283,6 +1364,9 @@
       <c r="I28" t="n">
         <v>2582739.27</v>
       </c>
+      <c r="J28" t="n">
+        <v>2492005.92</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1314,6 +1398,9 @@
       <c r="I29" t="n">
         <v>1502283.09</v>
       </c>
+      <c r="J29" t="n">
+        <v>1502039.67</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1432,9 @@
       <c r="I30" t="n">
         <v>173825.66</v>
       </c>
+      <c r="J30" t="n">
+        <v>174167.37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1376,6 +1466,9 @@
       <c r="I31" t="n">
         <v>6111576.02</v>
       </c>
+      <c r="J31" t="n">
+        <v>6609642.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1407,6 +1500,9 @@
       <c r="I32" t="n">
         <v>247094.71</v>
       </c>
+      <c r="J32" t="n">
+        <v>247019.78</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1438,6 +1534,9 @@
       <c r="I33" t="n">
         <v>50986.59</v>
       </c>
+      <c r="J33" t="n">
+        <v>51002.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1469,6 +1568,9 @@
       <c r="I34" t="n">
         <v>503139.77</v>
       </c>
+      <c r="J34" t="n">
+        <v>493337.61</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1500,6 +1602,9 @@
       <c r="I35" t="n">
         <v>1189435.29</v>
       </c>
+      <c r="J35" t="n">
+        <v>1189010.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1531,6 +1636,9 @@
       <c r="I36" t="n">
         <v>317588.1</v>
       </c>
+      <c r="J36" t="n">
+        <v>317542.04</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1562,6 +1670,9 @@
       <c r="I37" t="n">
         <v>35223.8</v>
       </c>
+      <c r="J37" t="n">
+        <v>35243.67</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1593,6 +1704,9 @@
       <c r="I38" t="n">
         <v>319554.76</v>
       </c>
+      <c r="J38" t="n">
+        <v>319426.94</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1624,6 +1738,9 @@
       <c r="I39" t="n">
         <v>212759.84</v>
       </c>
+      <c r="J39" t="n">
+        <v>212757.96</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1654,6 +1771,9 @@
       </c>
       <c r="I40" t="n">
         <v>146176.17</v>
+      </c>
+      <c r="J40" t="n">
+        <v>146293.72</v>
       </c>
     </row>
     <row r="41">
@@ -1684,6 +1804,9 @@
       <c r="I41" t="n">
         <v>786255.46</v>
       </c>
+      <c r="J41" t="n">
+        <v>786371.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1715,6 +1838,9 @@
       <c r="I42" t="n">
         <v>1374700.97</v>
       </c>
+      <c r="J42" t="n">
+        <v>1374879.66</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1746,6 +1872,9 @@
       <c r="I43" t="n">
         <v>431393.98</v>
       </c>
+      <c r="J43" t="n">
+        <v>453372.59</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1777,6 +1906,9 @@
       <c r="I44" t="n">
         <v>528559.8100000001</v>
       </c>
+      <c r="J44" t="n">
+        <v>529060.3199999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1808,6 +1940,9 @@
       <c r="I45" t="n">
         <v>386514.54</v>
       </c>
+      <c r="J45" t="n">
+        <v>386891.77</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1839,6 +1974,9 @@
       <c r="I46" t="n">
         <v>2311945.92</v>
       </c>
+      <c r="J46" t="n">
+        <v>2312639.03</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1869,6 +2007,9 @@
       </c>
       <c r="I47" t="n">
         <v>3914646.49</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3860051.64</v>
       </c>
     </row>
     <row r="48">
@@ -1891,6 +2032,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1922,6 +2064,9 @@
       <c r="I49" t="n">
         <v>178921.11</v>
       </c>
+      <c r="J49" t="n">
+        <v>301779.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1952,6 +2097,9 @@
       </c>
       <c r="I50" t="n">
         <v>202984.91</v>
+      </c>
+      <c r="J50" t="n">
+        <v>203073.03</v>
       </c>
     </row>
     <row r="51">
@@ -1974,6 +2122,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2005,6 +2154,9 @@
       <c r="I52" t="n">
         <v>1048927.28</v>
       </c>
+      <c r="J52" t="n">
+        <v>1046656.46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2035,6 +2187,9 @@
       </c>
       <c r="I53" t="n">
         <v>49299582.39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>49192853.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>861650.91</v>
       </c>
+      <c r="K2" t="n">
+        <v>821925.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>2058094.54</v>
       </c>
+      <c r="K3" t="n">
+        <v>2154507.96</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>210982.49</v>
       </c>
+      <c r="K4" t="n">
+        <v>211108.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>465696.68</v>
       </c>
+      <c r="K5" t="n">
+        <v>472865.62</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>658166.9300000001</v>
       </c>
+      <c r="K6" t="n">
+        <v>657991.4399999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>2120631.15</v>
       </c>
+      <c r="K7" t="n">
+        <v>2034919.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>60009.85</v>
       </c>
+      <c r="K8" t="n">
+        <v>59909.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>328515.2</v>
       </c>
+      <c r="K9" t="n">
+        <v>321509.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>14635.52</v>
       </c>
+      <c r="K10" t="n">
+        <v>14661.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>482947.79</v>
       </c>
+      <c r="K11" t="n">
+        <v>482572.41</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>59126.88</v>
       </c>
+      <c r="K12" t="n">
+        <v>7129.81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>13012.31</v>
       </c>
+      <c r="K13" t="n">
+        <v>13045.77</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -920,6 +961,9 @@
       </c>
       <c r="J14" t="n">
         <v>1650765.16</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1650561.95</v>
       </c>
     </row>
     <row r="15">
@@ -945,6 +989,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -979,6 +1024,9 @@
       <c r="J16" t="n">
         <v>434730.67</v>
       </c>
+      <c r="K16" t="n">
+        <v>435006.71</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1013,6 +1061,9 @@
       <c r="J17" t="n">
         <v>5236127.27</v>
       </c>
+      <c r="K17" t="n">
+        <v>5214306.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1046,6 +1097,9 @@
       </c>
       <c r="J18" t="n">
         <v>40201.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40198.84</v>
       </c>
     </row>
     <row r="19">
@@ -1079,6 +1133,9 @@
       <c r="J19" t="n">
         <v>3031917.98</v>
       </c>
+      <c r="K19" t="n">
+        <v>3032742.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1111,6 +1168,9 @@
       <c r="J20" t="n">
         <v>847323.84</v>
       </c>
+      <c r="K20" t="n">
+        <v>847354.45</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1143,6 +1203,9 @@
       <c r="J21" t="n">
         <v>500375.36</v>
       </c>
+      <c r="K21" t="n">
+        <v>500058.83</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1175,6 +1238,9 @@
       <c r="J22" t="n">
         <v>16545.39</v>
       </c>
+      <c r="K22" t="n">
+        <v>16557.56</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1207,6 +1273,9 @@
       <c r="J23" t="n">
         <v>36791.12</v>
       </c>
+      <c r="K23" t="n">
+        <v>36778.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1239,6 +1308,9 @@
       <c r="J24" t="n">
         <v>2793141.06</v>
       </c>
+      <c r="K24" t="n">
+        <v>2792158.63</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1271,6 +1343,9 @@
       <c r="J25" t="n">
         <v>297112.64</v>
       </c>
+      <c r="K25" t="n">
+        <v>235671.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1303,6 +1378,9 @@
       <c r="J26" t="n">
         <v>1540438.84</v>
       </c>
+      <c r="K26" t="n">
+        <v>1487276.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1335,6 +1413,9 @@
       <c r="J27" t="n">
         <v>1436303.46</v>
       </c>
+      <c r="K27" t="n">
+        <v>1437206.58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1367,6 +1448,9 @@
       <c r="J28" t="n">
         <v>2492005.92</v>
       </c>
+      <c r="K28" t="n">
+        <v>2381740.74</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1401,6 +1485,9 @@
       <c r="J29" t="n">
         <v>1502039.67</v>
       </c>
+      <c r="K29" t="n">
+        <v>1502018.28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1435,6 +1522,9 @@
       <c r="J30" t="n">
         <v>174167.37</v>
       </c>
+      <c r="K30" t="n">
+        <v>173977.82</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1469,6 +1559,9 @@
       <c r="J31" t="n">
         <v>6609642.7</v>
       </c>
+      <c r="K31" t="n">
+        <v>6997255.62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1503,6 +1596,9 @@
       <c r="J32" t="n">
         <v>247019.78</v>
       </c>
+      <c r="K32" t="n">
+        <v>247088.03</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1537,6 +1633,9 @@
       <c r="J33" t="n">
         <v>51002.33</v>
       </c>
+      <c r="K33" t="n">
+        <v>50977.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1571,6 +1670,9 @@
       <c r="J34" t="n">
         <v>493337.61</v>
       </c>
+      <c r="K34" t="n">
+        <v>477994.56</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1605,6 +1707,9 @@
       <c r="J35" t="n">
         <v>1189010.05</v>
       </c>
+      <c r="K35" t="n">
+        <v>1189274.34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1639,6 +1744,9 @@
       <c r="J36" t="n">
         <v>317542.04</v>
       </c>
+      <c r="K36" t="n">
+        <v>317400.31</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1673,6 +1781,9 @@
       <c r="J37" t="n">
         <v>35243.67</v>
       </c>
+      <c r="K37" t="n">
+        <v>35237.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1707,6 +1818,9 @@
       <c r="J38" t="n">
         <v>319426.94</v>
       </c>
+      <c r="K38" t="n">
+        <v>307011.56</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1741,6 +1855,9 @@
       <c r="J39" t="n">
         <v>212757.96</v>
       </c>
+      <c r="K39" t="n">
+        <v>212811.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1774,6 +1891,9 @@
       </c>
       <c r="J40" t="n">
         <v>146293.72</v>
+      </c>
+      <c r="K40" t="n">
+        <v>146307.12</v>
       </c>
     </row>
     <row r="41">
@@ -1807,6 +1927,9 @@
       <c r="J41" t="n">
         <v>786371.9</v>
       </c>
+      <c r="K41" t="n">
+        <v>785922.16</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1841,6 +1964,9 @@
       <c r="J42" t="n">
         <v>1374879.66</v>
       </c>
+      <c r="K42" t="n">
+        <v>1375352.72</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1875,6 +2001,9 @@
       <c r="J43" t="n">
         <v>453372.59</v>
       </c>
+      <c r="K43" t="n">
+        <v>403253.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1909,6 +2038,9 @@
       <c r="J44" t="n">
         <v>529060.3199999999</v>
       </c>
+      <c r="K44" t="n">
+        <v>528782.0600000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1943,6 +2075,9 @@
       <c r="J45" t="n">
         <v>386891.77</v>
       </c>
+      <c r="K45" t="n">
+        <v>386453.24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1977,6 +2112,9 @@
       <c r="J46" t="n">
         <v>2312639.03</v>
       </c>
+      <c r="K46" t="n">
+        <v>2311873.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2010,6 +2148,9 @@
       </c>
       <c r="J47" t="n">
         <v>3860051.64</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3859060.97</v>
       </c>
     </row>
     <row r="48">
@@ -2033,6 +2174,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2067,6 +2209,9 @@
       <c r="J49" t="n">
         <v>301779.25</v>
       </c>
+      <c r="K49" t="n">
+        <v>380459.99</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2100,6 +2245,9 @@
       </c>
       <c r="J50" t="n">
         <v>203073.03</v>
+      </c>
+      <c r="K50" t="n">
+        <v>203087.55</v>
       </c>
     </row>
     <row r="51">
@@ -2123,6 +2271,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2157,6 +2306,9 @@
       <c r="J52" t="n">
         <v>1046656.46</v>
       </c>
+      <c r="K52" t="n">
+        <v>1047901.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2190,6 +2342,9 @@
       </c>
       <c r="J53" t="n">
         <v>49192853.39</v>
+      </c>
+      <c r="K53" t="n">
+        <v>49251365.6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>821925.61</v>
       </c>
+      <c r="L2" t="n">
+        <v>821646.3100000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>2154507.96</v>
       </c>
+      <c r="L3" t="n">
+        <v>2069650.92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>211108.17</v>
       </c>
+      <c r="L4" t="n">
+        <v>211088.83</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>472865.62</v>
       </c>
+      <c r="L5" t="n">
+        <v>472678.58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>657991.4399999999</v>
       </c>
+      <c r="L6" t="n">
+        <v>658182.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>2034919.45</v>
       </c>
+      <c r="L7" t="n">
+        <v>2035947.65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>59909.2</v>
       </c>
+      <c r="L8" t="n">
+        <v>60356.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>321509.25</v>
       </c>
+      <c r="L9" t="n">
+        <v>321593.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>14661.27</v>
       </c>
+      <c r="L10" t="n">
+        <v>14627.12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>482572.41</v>
       </c>
+      <c r="L11" t="n">
+        <v>483261.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>7129.81</v>
       </c>
+      <c r="L12" t="n">
+        <v>7130.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>13045.77</v>
       </c>
+      <c r="L13" t="n">
+        <v>13053.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -964,6 +1005,9 @@
       </c>
       <c r="K14" t="n">
         <v>1650561.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1586748.31</v>
       </c>
     </row>
     <row r="15">
@@ -990,6 +1034,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1027,6 +1072,9 @@
       <c r="K16" t="n">
         <v>435006.71</v>
       </c>
+      <c r="L16" t="n">
+        <v>434372.72</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1064,6 +1112,9 @@
       <c r="K17" t="n">
         <v>5214306.24</v>
       </c>
+      <c r="L17" t="n">
+        <v>5202547.72</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1100,6 +1151,9 @@
       </c>
       <c r="K18" t="n">
         <v>40198.84</v>
+      </c>
+      <c r="L18" t="n">
+        <v>40201.44</v>
       </c>
     </row>
     <row r="19">
@@ -1136,6 +1190,9 @@
       <c r="K19" t="n">
         <v>3032742.09</v>
       </c>
+      <c r="L19" t="n">
+        <v>3031017.75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1171,6 +1228,9 @@
       <c r="K20" t="n">
         <v>847354.45</v>
       </c>
+      <c r="L20" t="n">
+        <v>847394.11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1206,6 +1266,9 @@
       <c r="K21" t="n">
         <v>500058.83</v>
       </c>
+      <c r="L21" t="n">
+        <v>500260.57</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1241,6 +1304,9 @@
       <c r="K22" t="n">
         <v>16557.56</v>
       </c>
+      <c r="L22" t="n">
+        <v>16557.68</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1276,6 +1342,9 @@
       <c r="K23" t="n">
         <v>36778.7</v>
       </c>
+      <c r="L23" t="n">
+        <v>36782.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1311,6 +1380,9 @@
       <c r="K24" t="n">
         <v>2792158.63</v>
       </c>
+      <c r="L24" t="n">
+        <v>2792123.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1346,6 +1418,9 @@
       <c r="K25" t="n">
         <v>235671.77</v>
       </c>
+      <c r="L25" t="n">
+        <v>236425.87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1381,6 +1456,9 @@
       <c r="K26" t="n">
         <v>1487276.09</v>
       </c>
+      <c r="L26" t="n">
+        <v>1536175.99</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1416,6 +1494,9 @@
       <c r="K27" t="n">
         <v>1437206.58</v>
       </c>
+      <c r="L27" t="n">
+        <v>1452746.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1451,6 +1532,9 @@
       <c r="K28" t="n">
         <v>2381740.74</v>
       </c>
+      <c r="L28" t="n">
+        <v>2342087.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1488,6 +1572,9 @@
       <c r="K29" t="n">
         <v>1502018.28</v>
       </c>
+      <c r="L29" t="n">
+        <v>1392684.35</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1525,6 +1612,9 @@
       <c r="K30" t="n">
         <v>173977.82</v>
       </c>
+      <c r="L30" t="n">
+        <v>174088.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1562,6 +1652,9 @@
       <c r="K31" t="n">
         <v>6997255.62</v>
       </c>
+      <c r="L31" t="n">
+        <v>7497519.47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1599,6 +1692,9 @@
       <c r="K32" t="n">
         <v>247088.03</v>
       </c>
+      <c r="L32" t="n">
+        <v>246968.34</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1636,6 +1732,9 @@
       <c r="K33" t="n">
         <v>50977.9</v>
       </c>
+      <c r="L33" t="n">
+        <v>50981.76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1673,6 +1772,9 @@
       <c r="K34" t="n">
         <v>477994.56</v>
       </c>
+      <c r="L34" t="n">
+        <v>508318.97</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1710,6 +1812,9 @@
       <c r="K35" t="n">
         <v>1189274.34</v>
       </c>
+      <c r="L35" t="n">
+        <v>1133422.13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1747,6 +1852,9 @@
       <c r="K36" t="n">
         <v>317400.31</v>
       </c>
+      <c r="L36" t="n">
+        <v>315586</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1784,6 +1892,9 @@
       <c r="K37" t="n">
         <v>35237.13</v>
       </c>
+      <c r="L37" t="n">
+        <v>35210.51</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1821,6 +1932,9 @@
       <c r="K38" t="n">
         <v>307011.56</v>
       </c>
+      <c r="L38" t="n">
+        <v>299217.31</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1858,6 +1972,9 @@
       <c r="K39" t="n">
         <v>212811.6</v>
       </c>
+      <c r="L39" t="n">
+        <v>212885.72</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1894,6 +2011,9 @@
       </c>
       <c r="K40" t="n">
         <v>146307.12</v>
+      </c>
+      <c r="L40" t="n">
+        <v>146191.53</v>
       </c>
     </row>
     <row r="41">
@@ -1930,6 +2050,9 @@
       <c r="K41" t="n">
         <v>785922.16</v>
       </c>
+      <c r="L41" t="n">
+        <v>786210.66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1967,6 +2090,9 @@
       <c r="K42" t="n">
         <v>1375352.72</v>
       </c>
+      <c r="L42" t="n">
+        <v>1374651.12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2004,6 +2130,9 @@
       <c r="K43" t="n">
         <v>403253.8</v>
       </c>
+      <c r="L43" t="n">
+        <v>431478.33</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2041,6 +2170,9 @@
       <c r="K44" t="n">
         <v>528782.0600000001</v>
       </c>
+      <c r="L44" t="n">
+        <v>528797.08</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2078,6 +2210,9 @@
       <c r="K45" t="n">
         <v>386453.24</v>
       </c>
+      <c r="L45" t="n">
+        <v>386550.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2115,6 +2250,9 @@
       <c r="K46" t="n">
         <v>2311873.7</v>
       </c>
+      <c r="L46" t="n">
+        <v>2275198.67</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2151,6 +2289,9 @@
       </c>
       <c r="K47" t="n">
         <v>3859060.97</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3256611.46</v>
       </c>
     </row>
     <row r="48">
@@ -2175,6 +2316,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2212,6 +2354,9 @@
       <c r="K49" t="n">
         <v>380459.99</v>
       </c>
+      <c r="L49" t="n">
+        <v>380459.62</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2248,6 +2393,9 @@
       </c>
       <c r="K50" t="n">
         <v>203087.55</v>
+      </c>
+      <c r="L50" t="n">
+        <v>202981.39</v>
       </c>
     </row>
     <row r="51">
@@ -2272,6 +2420,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2309,6 +2458,9 @@
       <c r="K52" t="n">
         <v>1047901.4</v>
       </c>
+      <c r="L52" t="n">
+        <v>1039588.74</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2345,6 +2497,9 @@
       </c>
       <c r="K53" t="n">
         <v>49251365.6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>48860670.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TXAR.xlsx
+++ b/backend/src/excel_handler/files/TXAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>821646.3100000001</v>
       </c>
+      <c r="M2" t="n">
+        <v>778477.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>2069650.92</v>
       </c>
+      <c r="M3" t="n">
+        <v>2069147.86</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>211088.83</v>
       </c>
+      <c r="M4" t="n">
+        <v>211079.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>472678.58</v>
       </c>
+      <c r="M5" t="n">
+        <v>472984.42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>658182.17</v>
       </c>
+      <c r="M6" t="n">
+        <v>591710.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>2035947.65</v>
       </c>
+      <c r="M7" t="n">
+        <v>1903190.69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>60356.31</v>
       </c>
+      <c r="M8" t="n">
+        <v>59893.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>321593.12</v>
       </c>
+      <c r="M9" t="n">
+        <v>321693.89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>14627.12</v>
       </c>
+      <c r="M10" t="n">
+        <v>14636.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>483261.19</v>
       </c>
+      <c r="M11" t="n">
+        <v>483304.19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>7130.67</v>
       </c>
+      <c r="M12" t="n">
+        <v>7132.76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>13053.36</v>
       </c>
+      <c r="M13" t="n">
+        <v>13032.97</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1008,6 +1049,9 @@
       </c>
       <c r="L14" t="n">
         <v>1586748.31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1587125.16</v>
       </c>
     </row>
     <row r="15">
@@ -1035,6 +1079,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1075,6 +1120,9 @@
       <c r="L16" t="n">
         <v>434372.72</v>
       </c>
+      <c r="M16" t="n">
+        <v>434695.98</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1115,6 +1163,9 @@
       <c r="L17" t="n">
         <v>5202547.72</v>
       </c>
+      <c r="M17" t="n">
+        <v>5124786.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1154,6 +1205,9 @@
       </c>
       <c r="L18" t="n">
         <v>40201.44</v>
+      </c>
+      <c r="M18" t="n">
+        <v>40202.54</v>
       </c>
     </row>
     <row r="19">
@@ -1193,6 +1247,9 @@
       <c r="L19" t="n">
         <v>3031017.75</v>
       </c>
+      <c r="M19" t="n">
+        <v>2946945.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1231,6 +1288,9 @@
       <c r="L20" t="n">
         <v>847394.11</v>
       </c>
+      <c r="M20" t="n">
+        <v>847579.61</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1269,6 +1329,9 @@
       <c r="L21" t="n">
         <v>500260.57</v>
       </c>
+      <c r="M21" t="n">
+        <v>500079.71</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1307,6 +1370,9 @@
       <c r="L22" t="n">
         <v>16557.68</v>
       </c>
+      <c r="M22" t="n">
+        <v>16545.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1345,6 +1411,9 @@
       <c r="L23" t="n">
         <v>36782.3</v>
       </c>
+      <c r="M23" t="n">
+        <v>30325.09</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1383,6 +1452,9 @@
       <c r="L24" t="n">
         <v>2792123.64</v>
       </c>
+      <c r="M24" t="n">
+        <v>2792950.86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1421,6 +1493,9 @@
       <c r="L25" t="n">
         <v>236425.87</v>
       </c>
+      <c r="M25" t="n">
+        <v>235963.68</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1459,6 +1534,9 @@
       <c r="L26" t="n">
         <v>1536175.99</v>
       </c>
+      <c r="M26" t="n">
+        <v>1659473.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1497,6 +1575,9 @@
       <c r="L27" t="n">
         <v>1452746.13</v>
       </c>
+      <c r="M27" t="n">
+        <v>1563937.42</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1535,6 +1616,9 @@
       <c r="L28" t="n">
         <v>2342087.01</v>
       </c>
+      <c r="M28" t="n">
+        <v>2341746.19</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1575,6 +1659,9 @@
       <c r="L29" t="n">
         <v>1392684.35</v>
       </c>
+      <c r="M29" t="n">
+        <v>1439805.44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1615,6 +1702,9 @@
       <c r="L30" t="n">
         <v>174088.43</v>
       </c>
+      <c r="M30" t="n">
+        <v>173928.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1655,6 +1745,9 @@
       <c r="L31" t="n">
         <v>7497519.47</v>
       </c>
+      <c r="M31" t="n">
+        <v>7500865.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1695,6 +1788,9 @@
       <c r="L32" t="n">
         <v>246968.34</v>
       </c>
+      <c r="M32" t="n">
+        <v>246969.72</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1735,6 +1831,9 @@
       <c r="L33" t="n">
         <v>50981.76</v>
       </c>
+      <c r="M33" t="n">
+        <v>61011.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1775,6 +1874,9 @@
       <c r="L34" t="n">
         <v>508318.97</v>
       </c>
+      <c r="M34" t="n">
+        <v>508321.92</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1815,6 +1917,9 @@
       <c r="L35" t="n">
         <v>1133422.13</v>
       </c>
+      <c r="M35" t="n">
+        <v>1109124.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1855,6 +1960,9 @@
       <c r="L36" t="n">
         <v>315586</v>
       </c>
+      <c r="M36" t="n">
+        <v>277831.53</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1895,6 +2003,9 @@
       <c r="L37" t="n">
         <v>35210.51</v>
       </c>
+      <c r="M37" t="n">
+        <v>35231.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1935,6 +2046,9 @@
       <c r="L38" t="n">
         <v>299217.31</v>
       </c>
+      <c r="M38" t="n">
+        <v>299570.19</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1975,6 +2089,9 @@
       <c r="L39" t="n">
         <v>212885.72</v>
       </c>
+      <c r="M39" t="n">
+        <v>212883.94</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2014,6 +2131,9 @@
       </c>
       <c r="L40" t="n">
         <v>146191.53</v>
+      </c>
+      <c r="M40" t="n">
+        <v>146318.7</v>
       </c>
     </row>
     <row r="41">
@@ -2053,6 +2173,9 @@
       <c r="L41" t="n">
         <v>786210.66</v>
       </c>
+      <c r="M41" t="n">
+        <v>786155</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2093,6 +2216,9 @@
       <c r="L42" t="n">
         <v>1374651.12</v>
       </c>
+      <c r="M42" t="n">
+        <v>1374503.45</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2133,6 +2259,9 @@
       <c r="L43" t="n">
         <v>431478.33</v>
       </c>
+      <c r="M43" t="n">
+        <v>431212.57</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2173,6 +2302,9 @@
       <c r="L44" t="n">
         <v>528797.08</v>
       </c>
+      <c r="M44" t="n">
+        <v>528717.41</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2213,6 +2345,9 @@
       <c r="L45" t="n">
         <v>386550.23</v>
       </c>
+      <c r="M45" t="n">
+        <v>375458.29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2253,6 +2388,9 @@
       <c r="L46" t="n">
         <v>2275198.67</v>
       </c>
+      <c r="M46" t="n">
+        <v>2274265.86</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2292,6 +2430,9 @@
       </c>
       <c r="L47" t="n">
         <v>3256611.46</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3057938.29</v>
       </c>
     </row>
     <row r="48">
@@ -2317,6 +2458,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2357,6 +2499,9 @@
       <c r="L49" t="n">
         <v>380459.62</v>
       </c>
+      <c r="M49" t="n">
+        <v>633354.5600000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2396,6 +2541,9 @@
       </c>
       <c r="L50" t="n">
         <v>202981.39</v>
+      </c>
+      <c r="M50" t="n">
+        <v>203131.66</v>
       </c>
     </row>
     <row r="51">
@@ -2421,6 +2569,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2461,6 +2610,9 @@
       <c r="L52" t="n">
         <v>1039588.74</v>
       </c>
+      <c r="M52" t="n">
+        <v>1036707.23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2500,6 +2652,9 @@
       </c>
       <c r="L53" t="n">
         <v>48860670.55</v>
+      </c>
+      <c r="M53" t="n">
+        <v>48725239.73</v>
       </c>
     </row>
   </sheetData>
